--- a/src/main/resources/stastic/formDemo/order.xlsx
+++ b/src/main/resources/stastic/formDemo/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/kwy/backend/management/src/main/resources/stastic/formDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3E7AE-9EAA-0840-8325-0E5334857905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377AA1-089C-CA47-88B1-40A2A089C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="10020" windowWidth="28800" windowHeight="15460" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
+    <workbookView xWindow="9820" yWindow="11900" windowWidth="12340" windowHeight="13840" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>河南康味源食品科技有限公司</t>
   </si>
@@ -56,97 +56,88 @@
     <t>单价</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>产品订单</t>
   </si>
   <si>
-    <t>购货单位：  福凌                                         订货日期：2023-06-01</t>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>小计金额</t>
+  </si>
+  <si>
+    <t>{.number}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.price}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：{orderId}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>客户联系人： 方总                                        联系电话：15294620358</t>
-  </si>
-  <si>
-    <t>件数</t>
-  </si>
-  <si>
-    <t>小计金额</t>
-  </si>
-  <si>
-    <t>乳酸菌风味调味料</t>
-  </si>
-  <si>
-    <t>L5045</t>
-  </si>
-  <si>
-    <t>青柠风味调味料</t>
-  </si>
-  <si>
-    <t>L50398</t>
-  </si>
-  <si>
-    <t>苹果风味调味料</t>
-  </si>
-  <si>
-    <t>L50383</t>
-  </si>
-  <si>
-    <t>葡萄风味调味料</t>
-  </si>
-  <si>
-    <t>L5042</t>
-  </si>
-  <si>
-    <t>荔枝风味调味料</t>
-  </si>
-  <si>
-    <t>L5043-1</t>
-  </si>
-  <si>
-    <t>收货地址：庄头</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注： </t>
+    <t xml:space="preserve">购货单位：{customer}  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户联系人：{people}                                       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货日期：{createDate}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话：{phone}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址：{address}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注： {note}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                                               合计：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">合计金额（大写）：                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送货上门</t>
-    </r>
-  </si>
-  <si>
-    <t>{.number}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.price}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">订单号： </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>合计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计金额（大写）：{amountByChinese}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{totalAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.amount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.unit}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.packageNumber}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.productCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.productName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +204,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -235,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,6 +242,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -267,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,7 +301,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -294,8 +315,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -321,13 +354,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -691,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7A5FF-59AB-4221-AF14-28367C3FDB0B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -702,8 +735,8 @@
     <col min="1" max="1" width="20.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
     <col min="3" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="24">
@@ -719,7 +752,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -730,7 +763,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -741,22 +774,26 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -769,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -781,205 +818,109 @@
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="e">
-        <f>E7*F7</f>
-        <v>#VALUE!</v>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <v>375</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3">
-        <f>E8*F8</f>
-        <v>9000</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>250</v>
-      </c>
-      <c r="F9" s="3">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3">
-        <f>E9*F9</f>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>250</v>
-      </c>
-      <c r="F10" s="3">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3">
-        <f>E10*F10</f>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3">
-        <v>250</v>
-      </c>
-      <c r="F11" s="3">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3">
-        <f>E11*F11</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="3" t="e">
-        <f>SUM(G7:G13)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A16:G16"/>
+  <mergeCells count="11">
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
